--- a/public/document/Room Import.xlsx
+++ b/public/document/Room Import.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91876587-9BA7-4043-9322-EF8112B6A547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>BRIDGE &amp; WHEELHOUSE TOP</t>
   </si>
@@ -71,12 +72,15 @@
   </si>
   <si>
     <t>GENERAL</t>
+  </si>
+  <si>
+    <t>GNRL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +135,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +466,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
